--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np1_Nj1.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr3_Np1_Nj1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
-    <col min="4" max="4" width="16.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="16.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.64453125" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.28864025927623033</v>
+        <v>0.27217399496364714</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.28789637897041942</v>
+        <v>0.27119591820047978</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00014187072468578151</v>
+        <v>-0.005674509449603661</v>
       </c>
       <c r="E3" s="0">
-        <v>0.00012981417022294724</v>
+        <v>-0.00022457028444024301</v>
       </c>
       <c r="F3" s="0">
-        <v>-8.6436746425362075e-06</v>
+        <v>-0.00055060614643710044</v>
       </c>
       <c r="G3" s="0">
-        <v>6.9233704680946956e-05</v>
+        <v>0.00013925072234968831</v>
       </c>
       <c r="H3" s="0">
-        <v>1.695640242659092e-06</v>
+        <v>2.6821926490800298e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>2.0732232455414778e-05</v>
+        <v>5.5597310817432816e-05</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.0770751503523854e-07</v>
+        <v>7.6428689170626729e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29858554079388977</v>
+        <v>0.33171928741532447</v>
       </c>
       <c r="C4" s="0">
-        <v>0.0052752460759217627</v>
+        <v>0.019820956160900682</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-7.692646402213721e-07</v>
+        <v>-3.9763806176166121e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-1.1913682507648346e-05</v>
+        <v>2.5743302233976779e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-6.7776243612822812e-06</v>
+        <v>0.00013507365155167425</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00018725986126894294</v>
+        <v>-0.00039358390289919354</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00041601030720786182</v>
+        <v>0.0029182491864013726</v>
       </c>
       <c r="K4" s="0">
-        <v>-0.00011126792455418144</v>
+        <v>-0.00028317984103581884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29953556990766433</v>
+        <v>0.32852168453270231</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.00092821541469481606</v>
+        <v>-0.0023256797142226838</v>
       </c>
       <c r="E5" s="0">
-        <v>4.5249690287197465e-06</v>
+        <v>-0.00097197236485605052</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00043166489361535696</v>
+        <v>0.0015852282811317589</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00012621275559960001</v>
+        <v>-0.00049438733705778196</v>
       </c>
       <c r="H5" s="0">
-        <v>-3.8387768496685075e-05</v>
+        <v>0.00013724234887271678</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00023241611588179322</v>
+        <v>-0.00010901462737906834</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.00037285961248784139</v>
+        <v>-0.001831087083280114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29450313714603016</v>
+        <v>0.18158653251933543</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0015524052839625056</v>
+        <v>-0.014758525507606514</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>-8.6158907985552215e-06</v>
+        <v>2.4074485978141254e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>-5.0628105481728628e-05</v>
+        <v>0.00023079686581279588</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-6.6810266643025916e-05</v>
+        <v>0.00013652148101326596</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00059174059657575418</v>
+        <v>-0.0067053326783280062</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00051695026548131962</v>
+        <v>-4.3185560878067353e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.29278903325308303</v>
+        <v>0.1816367577376321</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0015158492973783746</v>
+        <v>-0.0055188756703991081</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.00035000488194320228</v>
+        <v>-0.00063960561117781779</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.00045842398112385188</v>
+        <v>0.0025997803503639292</v>
       </c>
       <c r="G7" s="0">
-        <v>-5.5406608253360105e-05</v>
+        <v>0.0031114559852409235</v>
       </c>
       <c r="H7" s="0">
-        <v>3.8355130336717125e-06</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1.9092003964493688e-06</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.00029953569884566544</v>
+        <v>-0.00074802628243295088</v>
       </c>
     </row>
     <row r="8">
